--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goodgolden5/Desktop/bios_qexam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523EF861-E4DF-5041-BA71-B5E8067AE373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF3C298-7866-8440-A8C4-993F275BAD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28420" windowHeight="15980" xr2:uid="{BA7A95A4-84DF-2541-8A5B-B850EEE7D065}"/>
+    <workbookView xWindow="1360" yWindow="860" windowWidth="25680" windowHeight="15980" activeTab="2" xr2:uid="{BA7A95A4-84DF-2541-8A5B-B850EEE7D065}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="36">
   <si>
     <t>Mean</t>
   </si>
@@ -92,16 +94,69 @@
   </si>
   <si>
     <t>Settingup</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>beta2</t>
+  </si>
+  <si>
+    <t>beta3</t>
+  </si>
+  <si>
+    <t>Nonconvergence</t>
+  </si>
+  <si>
+    <t>Convergence</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>bias</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>glmnet</t>
+  </si>
+  <si>
+    <t>logisft</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>beta0 = 0</t>
+  </si>
+  <si>
+    <t>beta1 = 1</t>
+  </si>
+  <si>
+    <t>beta2 = 0.5</t>
+  </si>
+  <si>
+    <t>beta3 = -0.25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="171" formatCode="0.0E+00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -135,8 +190,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,8 +228,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -284,13 +363,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -329,10 +424,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
     <cellStyle name="60% - Accent3" xfId="2" builtinId="40"/>
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -647,7 +817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E29967-F2BD-1342-9597-63D86324B615}">
   <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="A1:N8"/>
     </sheetView>
   </sheetViews>
@@ -751,7 +921,8 @@
         <v>0.20312549999999999</v>
       </c>
       <c r="J3" s="4">
-        <v>3.1254870000000001E-3</v>
+        <f>I3-0.2</f>
+        <v>3.1254999999999755E-3</v>
       </c>
       <c r="K3" s="4">
         <v>3.9797029999999997E-2</v>
@@ -811,7 +982,8 @@
         <v>0.50519579999999997</v>
       </c>
       <c r="D4" s="5">
-        <v>0.30519581099999998</v>
+        <f xml:space="preserve"> C4-0.5</f>
+        <v>5.1957999999999727E-3</v>
       </c>
       <c r="E4" s="5">
         <v>0.13841674000000001</v>
@@ -829,7 +1001,8 @@
         <v>0.50003120000000001</v>
       </c>
       <c r="J4" s="4">
-        <v>0.30003118899999998</v>
+        <f xml:space="preserve"> I4-0.5</f>
+        <v>3.1200000000008998E-5</v>
       </c>
       <c r="K4" s="4">
         <v>4.915667E-2</v>
@@ -838,7 +1011,7 @@
         <v>0.9975965</v>
       </c>
       <c r="M4" s="4">
-        <v>-2.4034780000000001E-3</v>
+        <v>2.4034780000000001E-3</v>
       </c>
       <c r="N4" s="4">
         <v>0.11601187</v>
@@ -892,7 +1065,8 @@
         <v>0.79485309999999998</v>
       </c>
       <c r="D5" s="5">
-        <v>0.59485310219999998</v>
+        <f>0.8 - C5</f>
+        <v>5.1469000000000653E-3</v>
       </c>
       <c r="E5" s="5">
         <v>0.14558867</v>
@@ -910,7 +1084,8 @@
         <v>0.79883000000000004</v>
       </c>
       <c r="J5" s="4">
-        <v>0.59882999790000002</v>
+        <f>0.8 - I5</f>
+        <v>1.1700000000000044E-3</v>
       </c>
       <c r="K5" s="4">
         <v>4.0260909999999997E-2</v>
@@ -981,7 +1156,7 @@
         <v>0.99219570000000001</v>
       </c>
       <c r="G6" s="4">
-        <v>-7.8042924000000001E-3</v>
+        <v>7.8042924000000001E-3</v>
       </c>
       <c r="H6" s="4">
         <v>3.4526630000000003E-2</v>
@@ -990,7 +1165,8 @@
         <v>0.2003646</v>
       </c>
       <c r="J6" s="5">
-        <v>3.6457040000000002E-4</v>
+        <f>I6-0.2</f>
+        <v>3.6459999999999271E-4</v>
       </c>
       <c r="K6" s="5">
         <v>1.2930830000000001E-2</v>
@@ -999,7 +1175,7 @@
         <v>0.99193810000000004</v>
       </c>
       <c r="M6" s="5">
-        <v>-8.0619160000000006E-3</v>
+        <v>8.0619160000000006E-3</v>
       </c>
       <c r="N6" s="5">
         <v>3.2235199999999999E-2</v>
@@ -1050,7 +1226,8 @@
         <v>0.50360640000000001</v>
       </c>
       <c r="D7" s="4">
-        <v>0.30360639299999997</v>
+        <f>C7-0.5</f>
+        <v>3.6064000000000096E-3</v>
       </c>
       <c r="E7" s="4">
         <v>4.1657909999999999E-2</v>
@@ -1059,7 +1236,7 @@
         <v>0.98926910000000001</v>
       </c>
       <c r="G7" s="4">
-        <v>-1.0730933999999999E-2</v>
+        <v>1.0730933999999999E-2</v>
       </c>
       <c r="H7" s="4">
         <v>3.2796499999999999E-2</v>
@@ -1068,7 +1245,8 @@
         <v>0.50020549999999997</v>
       </c>
       <c r="J7" s="5">
-        <v>0.30020554799999999</v>
+        <f>I7-0.5</f>
+        <v>2.054999999999696E-4</v>
       </c>
       <c r="K7" s="5">
         <v>1.6861319999999999E-2</v>
@@ -1077,7 +1255,7 @@
         <v>0.99006530000000004</v>
       </c>
       <c r="M7" s="5">
-        <v>-9.9347440000000006E-3</v>
+        <v>9.9347440000000006E-3</v>
       </c>
       <c r="N7" s="5">
         <v>2.936739E-2</v>
@@ -1128,7 +1306,8 @@
         <v>0.79993190000000003</v>
       </c>
       <c r="D8" s="4">
-        <v>0.59993191000000001</v>
+        <f>C8-0.8</f>
+        <v>-6.810000000001537E-5</v>
       </c>
       <c r="E8" s="4">
         <v>5.3080740000000001E-2</v>
@@ -1137,7 +1316,7 @@
         <v>0.99273120000000004</v>
       </c>
       <c r="G8" s="4">
-        <v>-7.2687940000000003E-3</v>
+        <v>7.2687940000000003E-3</v>
       </c>
       <c r="H8" s="4">
         <v>3.3179889999999997E-2</v>
@@ -1146,7 +1325,8 @@
         <v>0.79941269999999998</v>
       </c>
       <c r="J8" s="5">
-        <v>0.59941273500000003</v>
+        <f>0.8 - I8</f>
+        <v>5.8730000000006832E-4</v>
       </c>
       <c r="K8" s="5">
         <v>1.295586E-2</v>
@@ -1155,7 +1335,7 @@
         <v>0.99213470000000004</v>
       </c>
       <c r="M8" s="5">
-        <v>-7.8652960000000008E-3</v>
+        <v>7.8652960000000008E-3</v>
       </c>
       <c r="N8" s="5">
         <v>2.6321879999999999E-2</v>
@@ -1310,4 +1490,891 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F6D338-F40F-F544-BC5E-56DDF141C004}">
+  <dimension ref="C6:L10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="C7:L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="12" width="8.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:12" ht="17" thickBot="1"/>
+    <row r="7" spans="3:12">
+      <c r="C7" s="18"/>
+      <c r="D7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" spans="3:12">
+      <c r="C8" s="21"/>
+      <c r="D8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12">
+      <c r="C9" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="16">
+        <v>-24134.7</v>
+      </c>
+      <c r="E9" s="17">
+        <f>1 - D9</f>
+        <v>24135.7</v>
+      </c>
+      <c r="F9" s="17">
+        <v>3196.2109999999998</v>
+      </c>
+      <c r="G9" s="17">
+        <v>6.6031019999999996E-2</v>
+      </c>
+      <c r="H9" s="17">
+        <f>-G9+0.5</f>
+        <v>0.43396898</v>
+      </c>
+      <c r="I9" s="17">
+        <v>2.085</v>
+      </c>
+      <c r="J9" s="17">
+        <v>-2.9983719999999998E-2</v>
+      </c>
+      <c r="K9" s="17">
+        <f>J9+0.25</f>
+        <v>0.22001628000000001</v>
+      </c>
+      <c r="L9" s="24">
+        <v>1.2190000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" ht="17" thickBot="1">
+      <c r="C10" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="27">
+        <v>-2.3739289999999999E-4</v>
+      </c>
+      <c r="H10" s="26">
+        <f>-G10+0.5</f>
+        <v>0.50023739290000002</v>
+      </c>
+      <c r="I10" s="26">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J10" s="26">
+        <v>6.0724840000000001E-5</v>
+      </c>
+      <c r="K10" s="26">
+        <f>0.25-J10</f>
+        <v>0.24993927516</v>
+      </c>
+      <c r="L10" s="28">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="C7:C8"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D0C44F-5418-E643-8B65-475D0AA11D1B}">
+  <dimension ref="C7:R33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L33" sqref="E20:L33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="15" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="3:16">
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+    </row>
+    <row r="8" spans="3:16">
+      <c r="C8" s="32"/>
+      <c r="D8" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8" s="32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16">
+      <c r="C9" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="32">
+        <v>8.8672739999999996E-3</v>
+      </c>
+      <c r="F9" s="32">
+        <v>0.18359239999999999</v>
+      </c>
+      <c r="G9" s="32">
+        <f>E9-0</f>
+        <v>8.8672739999999996E-3</v>
+      </c>
+      <c r="H9" s="32">
+        <v>3.8991508260000001</v>
+      </c>
+      <c r="I9" s="32">
+        <v>0.3046741</v>
+      </c>
+      <c r="J9" s="32">
+        <f>H9-1</f>
+        <v>2.8991508260000001</v>
+      </c>
+      <c r="K9" s="35">
+        <v>0</v>
+      </c>
+      <c r="L9" s="35">
+        <v>0</v>
+      </c>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35">
+        <v>0</v>
+      </c>
+      <c r="O9" s="35">
+        <v>0</v>
+      </c>
+      <c r="P9" s="31"/>
+    </row>
+    <row r="10" spans="3:16">
+      <c r="C10" s="36"/>
+      <c r="D10" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="32">
+        <v>7.041042E-3</v>
+      </c>
+      <c r="F10" s="32">
+        <v>0.17453979999999999</v>
+      </c>
+      <c r="G10" s="32">
+        <f t="shared" ref="G10:G14" si="0">E10-0</f>
+        <v>7.041042E-3</v>
+      </c>
+      <c r="H10" s="32">
+        <v>1.9115964830000001</v>
+      </c>
+      <c r="I10" s="32">
+        <v>0.17091249999999999</v>
+      </c>
+      <c r="J10" s="32">
+        <f t="shared" ref="J10:J14" si="1">H10-1</f>
+        <v>0.91159648300000007</v>
+      </c>
+      <c r="K10" s="35">
+        <v>0</v>
+      </c>
+      <c r="L10" s="35">
+        <v>0</v>
+      </c>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35">
+        <v>0</v>
+      </c>
+      <c r="O10" s="35">
+        <v>0</v>
+      </c>
+      <c r="P10" s="31"/>
+    </row>
+    <row r="11" spans="3:16">
+      <c r="C11" s="36"/>
+      <c r="D11" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="32">
+        <v>5.0555599999999997E-3</v>
+      </c>
+      <c r="F11" s="32">
+        <v>0.20623379999999999</v>
+      </c>
+      <c r="G11" s="32">
+        <f t="shared" si="0"/>
+        <v>5.0555599999999997E-3</v>
+      </c>
+      <c r="H11" s="35">
+        <v>0</v>
+      </c>
+      <c r="I11" s="35">
+        <v>0</v>
+      </c>
+      <c r="J11" s="35">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="K11" s="35">
+        <v>0</v>
+      </c>
+      <c r="L11" s="35">
+        <v>0</v>
+      </c>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35">
+        <v>0</v>
+      </c>
+      <c r="O11" s="35">
+        <v>0</v>
+      </c>
+      <c r="P11" s="31"/>
+    </row>
+    <row r="12" spans="3:16">
+      <c r="C12" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="32">
+        <v>8.9439840000000003E-3</v>
+      </c>
+      <c r="F12" s="32">
+        <v>2.473284</v>
+      </c>
+      <c r="G12" s="32">
+        <f t="shared" si="0"/>
+        <v>8.9439840000000003E-3</v>
+      </c>
+      <c r="H12" s="32">
+        <v>32.73415</v>
+      </c>
+      <c r="I12" s="32">
+        <v>5.1289449999999999</v>
+      </c>
+      <c r="J12" s="32">
+        <f t="shared" si="1"/>
+        <v>31.73415</v>
+      </c>
+      <c r="K12" s="32">
+        <v>1.358531E-2</v>
+      </c>
+      <c r="L12" s="32">
+        <v>1.082139</v>
+      </c>
+      <c r="M12" s="32">
+        <f>0.5-K12</f>
+        <v>0.48641468999999998</v>
+      </c>
+      <c r="N12" s="32">
+        <v>6.5283170000000001E-4</v>
+      </c>
+      <c r="O12" s="32">
+        <v>1.075547</v>
+      </c>
+      <c r="P12" s="32">
+        <f>0.25-N12</f>
+        <v>0.2493471683</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16">
+      <c r="C13" s="36"/>
+      <c r="D13" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="E13" s="32">
+        <v>1.4238817000000001E-2</v>
+      </c>
+      <c r="F13" s="32">
+        <v>2.461443</v>
+      </c>
+      <c r="G13" s="32">
+        <f t="shared" si="0"/>
+        <v>1.4238817000000001E-2</v>
+      </c>
+      <c r="H13" s="32">
+        <v>32.725466961999999</v>
+      </c>
+      <c r="I13" s="32">
+        <v>5.1056439999999998</v>
+      </c>
+      <c r="J13" s="32">
+        <f t="shared" si="1"/>
+        <v>31.725466961999999</v>
+      </c>
+      <c r="K13" s="32">
+        <v>1.4733654000000001E-2</v>
+      </c>
+      <c r="L13" s="32">
+        <v>1.0830500000000001</v>
+      </c>
+      <c r="M13" s="32">
+        <f t="shared" ref="M13:M14" si="2">0.5-K13</f>
+        <v>0.48526634600000002</v>
+      </c>
+      <c r="N13" s="32">
+        <v>-3.7444269999999998E-3</v>
+      </c>
+      <c r="O13" s="32">
+        <v>1.066187</v>
+      </c>
+      <c r="P13" s="32">
+        <f t="shared" ref="P13:P14" si="3">N13+0.25</f>
+        <v>0.24625557300000001</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16">
+      <c r="C14" s="36"/>
+      <c r="D14" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="32">
+        <v>9.9881139999999993E-3</v>
+      </c>
+      <c r="F14" s="32">
+        <v>2.285606</v>
+      </c>
+      <c r="G14" s="32">
+        <f t="shared" si="0"/>
+        <v>9.9881139999999993E-3</v>
+      </c>
+      <c r="H14" s="32">
+        <v>30.974600642999999</v>
+      </c>
+      <c r="I14" s="32">
+        <v>4.7032293999999997</v>
+      </c>
+      <c r="J14" s="32">
+        <f t="shared" si="1"/>
+        <v>29.974600642999999</v>
+      </c>
+      <c r="K14" s="32">
+        <v>1.7037162000000002E-2</v>
+      </c>
+      <c r="L14" s="32">
+        <v>1.0445196999999999</v>
+      </c>
+      <c r="M14" s="32">
+        <f t="shared" si="2"/>
+        <v>0.48296283800000001</v>
+      </c>
+      <c r="N14" s="32">
+        <v>-3.6690260000000001E-3</v>
+      </c>
+      <c r="O14" s="32">
+        <v>0.97666520000000001</v>
+      </c>
+      <c r="P14" s="32">
+        <f t="shared" si="3"/>
+        <v>0.24633097400000001</v>
+      </c>
+    </row>
+    <row r="19" spans="4:18">
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+    </row>
+    <row r="20" spans="4:18">
+      <c r="E20" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+    </row>
+    <row r="21" spans="4:18">
+      <c r="E21" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="37"/>
+      <c r="G21" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="H21" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="I21" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="J21" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="K21" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="L21" s="38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="4:18">
+      <c r="E22" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="39">
+        <v>8.8672739999999996E-3</v>
+      </c>
+      <c r="H22" s="39">
+        <v>7.041042E-3</v>
+      </c>
+      <c r="I22" s="39">
+        <v>5.0555599999999997E-3</v>
+      </c>
+      <c r="J22" s="39">
+        <v>8.9439840000000003E-3</v>
+      </c>
+      <c r="K22" s="39">
+        <v>1.4238817000000001E-2</v>
+      </c>
+      <c r="L22" s="39">
+        <v>9.9881139999999993E-3</v>
+      </c>
+      <c r="M22" s="32">
+        <f>AVERAGE(G22:I22)</f>
+        <v>6.9879586666666662E-3</v>
+      </c>
+      <c r="P22" s="32">
+        <f>AVERAGE(J22:L22)</f>
+        <v>1.1056971666666667E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="4:18">
+      <c r="E23" s="37"/>
+      <c r="F23" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="39">
+        <v>0.18359239999999999</v>
+      </c>
+      <c r="H23" s="39">
+        <v>0.17453979999999999</v>
+      </c>
+      <c r="I23" s="39">
+        <v>0.20623379999999999</v>
+      </c>
+      <c r="J23" s="39">
+        <v>2.473284</v>
+      </c>
+      <c r="K23" s="39">
+        <v>2.461443</v>
+      </c>
+      <c r="L23" s="39">
+        <v>2.285606</v>
+      </c>
+    </row>
+    <row r="24" spans="4:18">
+      <c r="D24" s="30"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="39">
+        <f>G22-0.007</f>
+        <v>1.8672739999999995E-3</v>
+      </c>
+      <c r="H24" s="39">
+        <f t="shared" ref="H24:I24" si="4">H22-0.007</f>
+        <v>4.1041999999999815E-5</v>
+      </c>
+      <c r="I24" s="39">
+        <f t="shared" si="4"/>
+        <v>-1.9444400000000004E-3</v>
+      </c>
+      <c r="J24" s="39">
+        <f>J22-0.011</f>
+        <v>-2.0560159999999991E-3</v>
+      </c>
+      <c r="K24" s="39">
+        <f t="shared" ref="K24:L24" si="5">K22-0.011</f>
+        <v>3.2388170000000015E-3</v>
+      </c>
+      <c r="L24" s="39">
+        <f t="shared" si="5"/>
+        <v>-1.011886E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="4:18">
+      <c r="D25" s="30"/>
+      <c r="E25" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="39">
+        <v>3.8991508260000001</v>
+      </c>
+      <c r="H25" s="39">
+        <v>1.9115964830000001</v>
+      </c>
+      <c r="I25" s="40">
+        <v>0</v>
+      </c>
+      <c r="J25" s="39">
+        <v>32.73415</v>
+      </c>
+      <c r="K25" s="39">
+        <v>32.725466961999999</v>
+      </c>
+      <c r="L25" s="39">
+        <v>30.974600642999999</v>
+      </c>
+      <c r="M25" s="32">
+        <f>AVERAGE(G25:I25)</f>
+        <v>1.9369157696666666</v>
+      </c>
+      <c r="P25" s="32">
+        <f>AVERAGE(J25:L25)</f>
+        <v>32.144739201666667</v>
+      </c>
+    </row>
+    <row r="26" spans="4:18">
+      <c r="D26" s="30"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="39">
+        <v>0.3046741</v>
+      </c>
+      <c r="H26" s="39">
+        <v>0.17091249999999999</v>
+      </c>
+      <c r="I26" s="40">
+        <v>0</v>
+      </c>
+      <c r="J26" s="39">
+        <v>5.1289449999999999</v>
+      </c>
+      <c r="K26" s="39">
+        <v>5.1056439999999998</v>
+      </c>
+      <c r="L26" s="39">
+        <v>4.7032293999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="4:18">
+      <c r="D27" s="30"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="39">
+        <f>G25-1.937</f>
+        <v>1.962150826</v>
+      </c>
+      <c r="H27" s="39">
+        <f>H25-1.937</f>
+        <v>-2.5403516999999987E-2</v>
+      </c>
+      <c r="I27" s="40">
+        <f>I25-1</f>
+        <v>-1</v>
+      </c>
+      <c r="J27" s="39">
+        <f>J25-32.145</f>
+        <v>0.58914999999999651</v>
+      </c>
+      <c r="K27" s="39">
+        <f t="shared" ref="K27:L27" si="6">K25-32.145</f>
+        <v>0.58046696199999559</v>
+      </c>
+      <c r="L27" s="39">
+        <f t="shared" si="6"/>
+        <v>-1.1703993570000044</v>
+      </c>
+    </row>
+    <row r="28" spans="4:18">
+      <c r="D28" s="30"/>
+      <c r="E28" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="40">
+        <v>0</v>
+      </c>
+      <c r="H28" s="40">
+        <v>0</v>
+      </c>
+      <c r="I28" s="40">
+        <v>0</v>
+      </c>
+      <c r="J28" s="39">
+        <v>1.358531E-2</v>
+      </c>
+      <c r="K28" s="39">
+        <v>1.4733654000000001E-2</v>
+      </c>
+      <c r="L28" s="39">
+        <v>1.7037162000000002E-2</v>
+      </c>
+      <c r="P28" s="32">
+        <f>AVERAGE(J28:L28)</f>
+        <v>1.5118708666666668E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="4:18">
+      <c r="D29" s="30"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="40">
+        <v>0</v>
+      </c>
+      <c r="H29" s="40">
+        <v>0</v>
+      </c>
+      <c r="I29" s="40">
+        <v>0</v>
+      </c>
+      <c r="J29" s="39">
+        <v>1.082139</v>
+      </c>
+      <c r="K29" s="39">
+        <v>1.0830500000000001</v>
+      </c>
+      <c r="L29" s="39">
+        <v>1.0445196999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="4:18">
+      <c r="E30" s="37"/>
+      <c r="F30" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="39">
+        <f>J28-0.015</f>
+        <v>-1.4146899999999997E-3</v>
+      </c>
+      <c r="K30" s="39">
+        <f t="shared" ref="K30:L30" si="7">K28-0.015</f>
+        <v>-2.663459999999989E-4</v>
+      </c>
+      <c r="L30" s="39">
+        <f t="shared" si="7"/>
+        <v>2.0371620000000021E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="4:18">
+      <c r="E31" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="40">
+        <v>0</v>
+      </c>
+      <c r="H31" s="40">
+        <v>0</v>
+      </c>
+      <c r="I31" s="40">
+        <v>0</v>
+      </c>
+      <c r="J31" s="39">
+        <v>6.5283170000000001E-4</v>
+      </c>
+      <c r="K31" s="39">
+        <v>-3.7444269999999998E-3</v>
+      </c>
+      <c r="L31" s="39">
+        <v>-3.6690260000000001E-3</v>
+      </c>
+      <c r="P31" s="32">
+        <f>AVERAGE(J31:L31)</f>
+        <v>-2.2535404333333332E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="4:18">
+      <c r="E32" s="37"/>
+      <c r="F32" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="40">
+        <v>0</v>
+      </c>
+      <c r="H32" s="40">
+        <v>0</v>
+      </c>
+      <c r="I32" s="40">
+        <v>0</v>
+      </c>
+      <c r="J32" s="39">
+        <v>1.075547</v>
+      </c>
+      <c r="K32" s="39">
+        <v>1.066187</v>
+      </c>
+      <c r="L32" s="39">
+        <v>0.97666520000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12">
+      <c r="E33" s="37"/>
+      <c r="F33" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="39">
+        <f>J31-0.002</f>
+        <v>-1.3471683E-3</v>
+      </c>
+      <c r="K33" s="39">
+        <f t="shared" ref="K33:L33" si="8">K31-0.002</f>
+        <v>-5.7444269999999999E-3</v>
+      </c>
+      <c r="L33" s="39">
+        <f t="shared" si="8"/>
+        <v>-5.6690260000000006E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>